--- a/data/trans_dic/P69$nervioso-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P69$nervioso-Provincia-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.5410628721241114</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.4276559096766369</v>
+        <v>0.427655909676637</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.6705947565840334</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3399762908777766</v>
+        <v>0.334603107344984</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.4377403270924847</v>
+        <v>0.4096753323169878</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.4057920093714208</v>
+        <v>0.3971046482554106</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2321958960718736</v>
+        <v>0.2462947991620612</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.4893779566190343</v>
+        <v>0.4736976225531077</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.6729853783837567</v>
+        <v>0.6682434806881052</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.4694689324032283</v>
+        <v>0.4663917317255867</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2538812179060362</v>
+        <v>0.2535260279440036</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.4392307235101102</v>
+        <v>0.4435813931890434</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.5766637332858784</v>
+        <v>0.5823736842238126</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.4651381836536752</v>
+        <v>0.4851541598025072</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.2819520439657301</v>
+        <v>0.288079614682253</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.6504037558939709</v>
+        <v>0.6633059183588337</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.7422606863513062</v>
+        <v>0.7347698635890282</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.6780093350446135</v>
+        <v>0.6784121290287058</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.6274980016572207</v>
+        <v>0.647690592275508</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.8296661489501653</v>
+        <v>0.8484363078289374</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.9611261325902113</v>
+        <v>0.961885824233878</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.7922700983473535</v>
+        <v>0.7822025102728453</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.6198579227107009</v>
+        <v>0.6056373929745212</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.684962991174762</v>
+        <v>0.677177568597619</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.8067457912722068</v>
+        <v>0.8162906155864732</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.673229973025154</v>
+        <v>0.6868033157303008</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.5634196145367153</v>
+        <v>0.5743282948812547</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.2760580893792775</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.4574557663579953</v>
+        <v>0.4574557663579954</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.6021837339673444</v>
@@ -821,7 +821,7 @@
         <v>0.6162388860054563</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.5454218995236038</v>
+        <v>0.5454218995236039</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.4844614462193195</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.3162330958065121</v>
+        <v>0.3208193871930797</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3677506026018941</v>
+        <v>0.357170427433528</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1780413151705623</v>
+        <v>0.1836811048274141</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2793012979315808</v>
+        <v>0.2845403000572629</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.4400475231135066</v>
+        <v>0.418289692980765</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2865861116372033</v>
+        <v>0.2923312432265034</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.4580356303117366</v>
+        <v>0.4668122890178973</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.4172668103142044</v>
+        <v>0.4157768581076116</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.3753728475371486</v>
+        <v>0.3814249115059999</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.3646001080968395</v>
+        <v>0.3626610105922186</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.30191908349407</v>
+        <v>0.3116329178748332</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.3851668367287076</v>
+        <v>0.3837433475089371</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.5607982432069456</v>
+        <v>0.560815193278667</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.6494764257805775</v>
+        <v>0.6352960182673786</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.386073529395926</v>
+        <v>0.3754622400107403</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.6346239050044263</v>
+        <v>0.6310689902762157</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.7680811164157924</v>
+        <v>0.7633790819269778</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.6554008394482336</v>
+        <v>0.6713394940714312</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.7548582121987931</v>
+        <v>0.7621054245636733</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.6712911189889265</v>
+        <v>0.6609526179746513</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.5846485470964849</v>
+        <v>0.5799994506846995</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.5902886715339414</v>
+        <v>0.5821583348874432</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.4775213952747658</v>
+        <v>0.4873762080758272</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.6093970679277856</v>
+        <v>0.6077930345304041</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.2961621488515517</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.6325546356124421</v>
+        <v>0.6325546356124422</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.3283042388245149</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2685858464120018</v>
+        <v>0.2555650919331683</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1485513815420685</v>
+        <v>0.146558797135651</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.04142689351070111</v>
+        <v>0.04080341632773705</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.3418418887977366</v>
+        <v>0.3472676362524513</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.04563482684520875</v>
+        <v>0.04550845754481467</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2390509049905026</v>
+        <v>0.2566558157906351</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.07825302666421145</v>
+        <v>0.07478091275887634</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.5167967204950066</v>
+        <v>0.5030340018761889</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2122045605594297</v>
+        <v>0.2164960049090413</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2435944471673804</v>
+        <v>0.2450298051880704</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.09535876533725327</v>
+        <v>0.104078723964638</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.460278016394529</v>
+        <v>0.4617223343974502</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.589723037717311</v>
+        <v>0.5970624166962087</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.4930637313905237</v>
+        <v>0.4924395816648952</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3873938145985367</v>
+        <v>0.3964538119700967</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.6225333537045176</v>
+        <v>0.6149912908370172</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3714725644503076</v>
+        <v>0.3932686055916116</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.7318811702019495</v>
+        <v>0.761117577763168</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.553321077149591</v>
+        <v>0.5536607992935877</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.7445450727009683</v>
+        <v>0.7448638931138742</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.4720066681677218</v>
+        <v>0.4660616426390945</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.5315101822438577</v>
+        <v>0.5357079848579415</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.3876786282848144</v>
+        <v>0.3691252719889952</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.6426190446217211</v>
+        <v>0.6483559347872221</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.6353829316892315</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.7514322608168401</v>
+        <v>0.7514322608168402</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.4891485491442362</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.31631491241162</v>
+        <v>0.3167974473536297</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.376854930068946</v>
+        <v>0.3782785560606881</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.5775567977590261</v>
+        <v>0.5705411250084715</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.6419527826913858</v>
+        <v>0.6387589094420253</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.375071899289279</v>
+        <v>0.358380207874306</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.3993015412980882</v>
+        <v>0.4362158329319198</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.4558695258972856</v>
+        <v>0.4453100295721639</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.6203153702141678</v>
+        <v>0.6072011236473467</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.3843509096540564</v>
+        <v>0.3852383454324727</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.4465492371773397</v>
+        <v>0.4530208339319693</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.5733425225367081</v>
+        <v>0.5816391336998716</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.6819449473764398</v>
+        <v>0.6697982111661822</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.5876849483704606</v>
+        <v>0.5836842723511227</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.6849034562691999</v>
+        <v>0.69512802052228</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.894384952677815</v>
+        <v>0.8932290873355366</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.9320266537310609</v>
+        <v>0.9346758745854495</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.7805747564318178</v>
+        <v>0.7469795774771357</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.7853766517450399</v>
+        <v>0.7912733682399511</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.809735992333689</v>
+        <v>0.800076448644286</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.858018052225697</v>
+        <v>0.848658970384191</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.6006761683710585</v>
+        <v>0.6199754003442259</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.6757457555269901</v>
+        <v>0.6809954706023883</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.8067051837751119</v>
+        <v>0.8175422989515555</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.868202866860836</v>
+        <v>0.8660163549122153</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.6620419440819676</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.5507935913612413</v>
+        <v>0.5507935913612414</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.7189742611529957</v>
@@ -1229,7 +1229,7 @@
         <v>1</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.7393741664621266</v>
+        <v>0.7393741664621264</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.3989851822726058</v>
@@ -1241,7 +1241,7 @@
         <v>0.7565335890661664</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.6222510505321494</v>
+        <v>0.6222510505321495</v>
       </c>
     </row>
     <row r="17">
@@ -1252,38 +1252,38 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1425308063754026</v>
+        <v>0.1312429334863375</v>
       </c>
       <c r="D17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3510111888226967</v>
+        <v>0.4057395518719493</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.3571142672229286</v>
+        <v>0.3403361804786105</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2898658483837452</v>
+        <v>0.287780176830021</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2856734004984925</v>
+        <v>0.2963065638687016</v>
       </c>
       <c r="I17" s="5" t="inlineStr"/>
       <c r="J17" s="5" t="n">
-        <v>0.5173321771200255</v>
+        <v>0.5257993928029506</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2291586101766361</v>
+        <v>0.2288371511830102</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1668170290170146</v>
+        <v>0.1524287534574903</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.5066172048130497</v>
+        <v>0.5156375187444103</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.480730058120103</v>
+        <v>0.4734344355496931</v>
       </c>
     </row>
     <row r="18">
@@ -1294,38 +1294,38 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.5241613560553229</v>
+        <v>0.5103614990798681</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3304141655171825</v>
+        <v>0.2792514280250898</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8784863379778048</v>
+        <v>0.8801310975983462</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.7373492308217067</v>
+        <v>0.7481944537649576</v>
       </c>
       <c r="G18" s="5" t="n">
         <v>1</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.9126522763785302</v>
+        <v>0.9113032219468814</v>
       </c>
       <c r="I18" s="5" t="inlineStr"/>
       <c r="J18" s="5" t="n">
-        <v>0.8908949672192282</v>
+        <v>0.8896649185165881</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.5704896325279171</v>
+        <v>0.5674581702426552</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.5507082933916242</v>
+        <v>0.5378181357778242</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.9061862955585807</v>
+        <v>0.9082088091965503</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.7527269113859336</v>
+        <v>0.769751221315024</v>
       </c>
     </row>
     <row r="19">
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.2629544150388141</v>
+        <v>0.2810142778734581</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.3371381129587783</v>
+        <v>0.3386564145953908</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.09726565237569827</v>
+        <v>0.09548547297299277</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.3175689167028044</v>
+        <v>0.3330547384847759</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.453589597092492</v>
+        <v>0.4421369023904525</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.2527987140853268</v>
+        <v>0.2533130223067855</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.1425110599369783</v>
+        <v>0.1455996584580793</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.3782614027790419</v>
+        <v>0.3724721165111712</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.3687276809960307</v>
+        <v>0.3635370406503335</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.364239444902995</v>
+        <v>0.3672033724674044</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.1702811990084246</v>
+        <v>0.1707905376911568</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.3920996159536513</v>
+        <v>0.3816929692574045</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.5801658216661315</v>
+        <v>0.5905718687908814</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.6448229604091332</v>
+        <v>0.6287181560340024</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.4974328650958426</v>
+        <v>0.5082976990775434</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.6348770280984216</v>
+        <v>0.6446004231216647</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.9291659868921985</v>
+        <v>0.9293324430294949</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.7626899761687426</v>
+        <v>0.7399550726948425</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.8742069179236264</v>
+        <v>0.8776498737712436</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.6668512906107146</v>
+        <v>0.6573006756749855</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.6354337003101533</v>
+        <v>0.6304567372460639</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.6146902724797113</v>
+        <v>0.6220312725788292</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.499540915064259</v>
+        <v>0.5067133715956295</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.6127923568632674</v>
+        <v>0.6053823954116899</v>
       </c>
     </row>
     <row r="22">
@@ -1485,7 +1485,7 @@
         <v>0.4055603407265276</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.642234604128647</v>
+        <v>0.6422346041286471</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.4814247978953312</v>
@@ -1509,7 +1509,7 @@
         <v>0.5141665094535661</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.6915465247901984</v>
+        <v>0.6915465247901985</v>
       </c>
     </row>
     <row r="23">
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.358803996919433</v>
+        <v>0.3527189269507717</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.4598291576890148</v>
+        <v>0.4560437290580756</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2952684484331649</v>
+        <v>0.2949700449964365</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.5165038614729821</v>
+        <v>0.5078400547499478</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.3401808506658247</v>
+        <v>0.3309886301690499</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.4291399093121275</v>
+        <v>0.4109537895445575</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.5135157769780552</v>
+        <v>0.5383307978057386</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.6536526768514634</v>
+        <v>0.658220695616513</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.3904831551746498</v>
+        <v>0.3835672814749377</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.4839312017366534</v>
+        <v>0.4747397973166673</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.4200035538124099</v>
+        <v>0.4331522410242912</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.6041752466197902</v>
+        <v>0.6152369697020644</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.5823517091852711</v>
+        <v>0.5723624280716575</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.7339051430387994</v>
+        <v>0.7295769646301657</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.5237847152369369</v>
+        <v>0.5238778750272808</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.7458706259115889</v>
+        <v>0.7472435548149483</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.6408603467385046</v>
+        <v>0.6159071149313347</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.7115422582238843</v>
+        <v>0.7069435311265112</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.7861296786888416</v>
+        <v>0.7920221770339303</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.8279153363116684</v>
+        <v>0.8277705572211912</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.5604537301929154</v>
+        <v>0.5575382789738771</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.6857328824767135</v>
+        <v>0.6745986618029078</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.6037051373417386</v>
+        <v>0.6137098158074694</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.7550046235419853</v>
+        <v>0.7662656408299579</v>
       </c>
     </row>
     <row r="25">
@@ -1621,7 +1621,7 @@
         <v>0.5161967253570368</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.8083027327650457</v>
+        <v>0.8083027327650454</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>0.422989993173238</v>
@@ -1633,7 +1633,7 @@
         <v>0.4451319718819556</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.7814502018725499</v>
+        <v>0.78145020187255</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.4113486100644846</v>
@@ -1656,40 +1656,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.313764401520771</v>
+        <v>0.3244605220034715</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.2111791072266658</v>
+        <v>0.2129546612452112</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.3545001331027137</v>
+        <v>0.3561691784596099</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.691418888549988</v>
+        <v>0.6759827136320854</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.2843053515901853</v>
+        <v>0.2797405624460405</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.227386883513991</v>
+        <v>0.2365415660016702</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.2395946915014895</v>
+        <v>0.2324746677998323</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.6712567506376842</v>
+        <v>0.6629642418901973</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.3397040889796963</v>
+        <v>0.3311123521683477</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.2615948444946627</v>
+        <v>0.2558509779180135</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.3550723728421197</v>
+        <v>0.3544476745585532</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.715105582836451</v>
+        <v>0.7162020687692556</v>
       </c>
     </row>
     <row r="27">
@@ -1700,40 +1700,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.5045706636383452</v>
+        <v>0.5054296838456978</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.4923070721331068</v>
+        <v>0.4843923401401938</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.667558345847879</v>
+        <v>0.6679580545435566</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.898179363437857</v>
+        <v>0.9003301953657522</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.5791401454613848</v>
+        <v>0.5719214679646398</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.6323699365728612</v>
+        <v>0.6222712182987712</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.6784263965274605</v>
+        <v>0.6706330006528526</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.8642615616813744</v>
+        <v>0.86251497961641</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.5101558454095673</v>
+        <v>0.4921459856074222</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.4905521651115915</v>
+        <v>0.4960741911762933</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.6160537930453294</v>
+        <v>0.624339504935132</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.8632397215231031</v>
+        <v>0.8640555189473476</v>
       </c>
     </row>
     <row r="28">
@@ -1781,7 +1781,7 @@
         <v>0.4981217327925999</v>
       </c>
       <c r="N28" s="5" t="n">
-        <v>0.6454550848027323</v>
+        <v>0.6454550848027325</v>
       </c>
     </row>
     <row r="29">
@@ -1792,40 +1792,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.3845677611404195</v>
+        <v>0.3897433772710261</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.409108526693915</v>
+        <v>0.4103240435007243</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.3750212780400902</v>
+        <v>0.3750145735124971</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.5620498706155886</v>
+        <v>0.5586806618353195</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.4457231826801007</v>
+        <v>0.4429179215040394</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.5051703401034251</v>
+        <v>0.5045990448482811</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.5387029532001733</v>
+        <v>0.537519115903437</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.6280118909922439</v>
+        <v>0.6284303031944684</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.4186673132849512</v>
+        <v>0.419772627578116</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.4686201220595892</v>
+        <v>0.464053404014462</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.4549835171895991</v>
+        <v>0.4539842836894373</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.6123956167146042</v>
+        <v>0.611361703394017</v>
       </c>
     </row>
     <row r="30">
@@ -1836,40 +1836,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.4781247226262521</v>
+        <v>0.4856202332883515</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.522843344339563</v>
+        <v>0.5187344260557682</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.4887248422100474</v>
+        <v>0.4862874325706368</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.6732208399647258</v>
+        <v>0.6723320988233139</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.5786791822972083</v>
+        <v>0.5762096929885986</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.6490909398210539</v>
+        <v>0.646188140988184</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.670087999540992</v>
+        <v>0.6717307811157897</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.7125669350598767</v>
+        <v>0.7154623729347372</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.4956288314082727</v>
+        <v>0.4958969238729041</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.5541214813960355</v>
+        <v>0.5582665919341073</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.5410762910672456</v>
+        <v>0.5414326676749553</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.6813324869434821</v>
+        <v>0.6789274817602657</v>
       </c>
     </row>
     <row r="31">
@@ -2144,40 +2144,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>14566</v>
+        <v>14336</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>16681</v>
+        <v>15612</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>23007</v>
+        <v>22515</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>5752</v>
+        <v>6101</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>14006</v>
+        <v>13557</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>20287</v>
+        <v>20144</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>19194</v>
+        <v>19068</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>4114</v>
+        <v>4108</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>31389</v>
+        <v>31700</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>39359</v>
+        <v>39749</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>45389</v>
+        <v>47342</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>11554</v>
+        <v>11805</v>
       </c>
     </row>
     <row r="7">
@@ -2188,40 +2188,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>27866</v>
+        <v>28419</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>28286</v>
+        <v>28001</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>38441</v>
+        <v>38464</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>15544</v>
+        <v>16044</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>23744</v>
+        <v>24281</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>28973</v>
+        <v>28996</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>32391</v>
+        <v>31980</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>10045</v>
+        <v>9814</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>48950</v>
+        <v>48393</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>55063</v>
+        <v>55714</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>65694</v>
+        <v>67019</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>23087</v>
+        <v>23534</v>
       </c>
     </row>
     <row r="8">
@@ -2324,40 +2324,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>22894</v>
+        <v>23226</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>20811</v>
+        <v>20212</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>14739</v>
+        <v>15206</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>13408</v>
+        <v>13660</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>14384</v>
+        <v>13673</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>9834</v>
+        <v>10031</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>19557</v>
+        <v>19931</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>19158</v>
+        <v>19090</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>39446</v>
+        <v>40082</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>33144</v>
+        <v>32968</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>37886</v>
+        <v>39105</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>36175</v>
+        <v>36042</v>
       </c>
     </row>
     <row r="11">
@@ -2368,40 +2368,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>40600</v>
+        <v>40601</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>36754</v>
+        <v>35951</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>31961</v>
+        <v>31083</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>30466</v>
+        <v>30296</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>25107</v>
+        <v>24953</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>22490</v>
+        <v>23037</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>32230</v>
+        <v>32540</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>30822</v>
+        <v>30347</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>61437</v>
+        <v>60949</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>53660</v>
+        <v>52921</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>59921</v>
+        <v>61157</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>57235</v>
+        <v>57085</v>
       </c>
     </row>
     <row r="12">
@@ -2504,40 +2504,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>9834</v>
+        <v>9358</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>3759</v>
+        <v>3709</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>880</v>
+        <v>867</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>16730</v>
+        <v>16996</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>4287</v>
+        <v>4603</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>978</v>
+        <v>935</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>23682</v>
+        <v>23052</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>12380</v>
+        <v>12630</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>10533</v>
+        <v>10595</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>3219</v>
+        <v>3513</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>43620</v>
+        <v>43757</v>
       </c>
     </row>
     <row r="15">
@@ -2548,40 +2548,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>21593</v>
+        <v>21861</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>12477</v>
+        <v>12461</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>8234</v>
+        <v>8426</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>30468</v>
+        <v>30099</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>8070</v>
+        <v>8543</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>13126</v>
+        <v>13651</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>6917</v>
+        <v>6921</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>34119</v>
+        <v>34133</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>27536</v>
+        <v>27190</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>22983</v>
+        <v>23164</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>13086</v>
+        <v>12460</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>60900</v>
+        <v>61443</v>
       </c>
     </row>
     <row r="16">
@@ -2684,40 +2684,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>18448</v>
+        <v>18477</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>17337</v>
+        <v>17402</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>18750</v>
+        <v>18523</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>34772</v>
+        <v>34599</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>8516</v>
+        <v>8137</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>11793</v>
+        <v>12884</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>13646</v>
+        <v>13330</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>32786</v>
+        <v>32092</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>31144</v>
+        <v>31215</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>33732</v>
+        <v>34221</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>35777</v>
+        <v>36294</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>72981</v>
+        <v>71681</v>
       </c>
     </row>
     <row r="19">
@@ -2728,40 +2728,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>34276</v>
+        <v>34042</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>31508</v>
+        <v>31979</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>29036</v>
+        <v>28999</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>50484</v>
+        <v>50628</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>17724</v>
+        <v>16961</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>23196</v>
+        <v>23370</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>24239</v>
+        <v>23950</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>45349</v>
+        <v>44854</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>48672</v>
+        <v>50236</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>51046</v>
+        <v>51442</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>50338</v>
+        <v>51015</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>92914</v>
+        <v>92680</v>
       </c>
     </row>
     <row r="20">
@@ -2864,38 +2864,38 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>3272</v>
+        <v>3013</v>
       </c>
       <c r="D22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>5220</v>
+        <v>6033</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>7733</v>
+        <v>7370</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>2020</v>
+        <v>2006</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>3331</v>
+        <v>3455</v>
       </c>
       <c r="I22" s="6" t="inlineStr"/>
       <c r="J22" s="6" t="n">
-        <v>6834</v>
+        <v>6946</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>6858</v>
+        <v>6848</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>4643</v>
+        <v>4242</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>10457</v>
+        <v>10643</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>16761</v>
+        <v>16507</v>
       </c>
     </row>
     <row r="23">
@@ -2906,38 +2906,38 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>12032</v>
+        <v>11715</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>5342</v>
+        <v>4515</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>13063</v>
+        <v>13088</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>15967</v>
+        <v>16201</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>6970</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>10642</v>
+        <v>10627</v>
       </c>
       <c r="I23" s="6" t="inlineStr"/>
       <c r="J23" s="6" t="n">
-        <v>11770</v>
+        <v>11753</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>17072</v>
+        <v>16981</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>15326</v>
+        <v>14967</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>18705</v>
+        <v>18746</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>26245</v>
+        <v>26838</v>
       </c>
     </row>
     <row r="24">
@@ -3040,40 +3040,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>10994</v>
+        <v>11749</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>14625</v>
+        <v>14691</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>2182</v>
+        <v>2142</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>10438</v>
+        <v>10947</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>6393</v>
+        <v>6231</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>3838</v>
+        <v>3846</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>1058</v>
+        <v>1081</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>11395</v>
+        <v>11220</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>20613</v>
+        <v>20323</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>21331</v>
+        <v>21505</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>5085</v>
+        <v>5100</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>24700</v>
+        <v>24044</v>
       </c>
     </row>
     <row r="27">
@@ -3084,40 +3084,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>24257</v>
+        <v>24692</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>27972</v>
+        <v>27274</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>11159</v>
+        <v>11403</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>20867</v>
+        <v>21187</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>13096</v>
+        <v>13098</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>11581</v>
+        <v>11235</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>6493</v>
+        <v>6518</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>20088</v>
+        <v>19801</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>35523</v>
+        <v>35244</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>35999</v>
+        <v>36429</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>14916</v>
+        <v>15130</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>38602</v>
+        <v>38135</v>
       </c>
     </row>
     <row r="28">
@@ -3220,40 +3220,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>31441</v>
+        <v>30908</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>25029</v>
+        <v>24822</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>23132</v>
+        <v>23109</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>43891</v>
+        <v>43155</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>14810</v>
+        <v>14410</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>19904</v>
+        <v>19060</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>28594</v>
+        <v>29975</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>52761</v>
+        <v>53130</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>51216</v>
+        <v>50309</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>48785</v>
+        <v>47859</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>56291</v>
+        <v>58053</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>100108</v>
+        <v>101941</v>
       </c>
     </row>
     <row r="31">
@@ -3264,40 +3264,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>51030</v>
+        <v>50154</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>39946</v>
+        <v>39711</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>41034</v>
+        <v>41042</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>63382</v>
+        <v>63499</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>27900</v>
+        <v>26814</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>33001</v>
+        <v>32788</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>43773</v>
+        <v>44101</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>66827</v>
+        <v>66815</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>73510</v>
+        <v>73127</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>69129</v>
+        <v>68006</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>80911</v>
+        <v>82252</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>125100</v>
+        <v>126966</v>
       </c>
     </row>
     <row r="32">
@@ -3400,40 +3400,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>34174</v>
+        <v>35339</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>9528</v>
+        <v>9608</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>13923</v>
+        <v>13988</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>45603</v>
+        <v>44585</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>14154</v>
+        <v>13927</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>6974</v>
+        <v>7255</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>5127</v>
+        <v>4975</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>38586</v>
+        <v>38109</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>53911</v>
+        <v>52548</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>19827</v>
+        <v>19391</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>21544</v>
+        <v>21506</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>88272</v>
+        <v>88407</v>
       </c>
     </row>
     <row r="35">
@@ -3444,40 +3444,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>54955</v>
+        <v>55049</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>22212</v>
+        <v>21855</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>26218</v>
+        <v>26233</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>59240</v>
+        <v>59382</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>28833</v>
+        <v>28474</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>19396</v>
+        <v>19086</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>14518</v>
+        <v>14352</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>49680</v>
+        <v>49580</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>80962</v>
+        <v>78104</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>37179</v>
+        <v>37598</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>37378</v>
+        <v>37881</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>106557</v>
+        <v>106658</v>
       </c>
     </row>
     <row r="36">
@@ -3580,40 +3580,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>181318</v>
+        <v>183758</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>133003</v>
+        <v>133398</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>130553</v>
+        <v>130551</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>214333</v>
+        <v>213048</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>98113</v>
+        <v>97496</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>109030</v>
+        <v>108907</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>116520</v>
+        <v>116264</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>214990</v>
+        <v>215134</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>289552</v>
+        <v>290317</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>253492</v>
+        <v>251022</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>256801</v>
+        <v>256237</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>443176</v>
+        <v>442428</v>
       </c>
     </row>
     <row r="39">
@@ -3624,40 +3624,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>225428</v>
+        <v>228962</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>169979</v>
+        <v>168643</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>170136</v>
+        <v>169287</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>256727</v>
+        <v>256388</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>127379</v>
+        <v>126836</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>140092</v>
+        <v>139465</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>144939</v>
+        <v>145294</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>243937</v>
+        <v>244928</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>342779</v>
+        <v>342965</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>299743</v>
+        <v>301985</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>305394</v>
+        <v>305595</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>493064</v>
+        <v>491324</v>
       </c>
     </row>
     <row r="40">
